--- a/xls_grupos/CAF_GrupoDomador.xlsx
+++ b/xls_grupos/CAF_GrupoDomador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvaros/Documents/MATLAB/PersonalProjects/Cosecha_Colectiva/xls_grupos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A51150-517A-7541-A1DE-B96644578EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E3B2C5-9043-834E-9D14-4AC5B583EEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="24020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="114">
   <si>
     <t>Nombres</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>10, 10</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>100,50</t>
+  </si>
+  <si>
+    <t>50, 100</t>
   </si>
 </sst>
 </file>
@@ -557,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -612,6 +624,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4724,8 +4737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B9F43F-D256-544F-9E99-A23C28176CED}">
   <dimension ref="A3:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6112,20 +6125,20 @@
       <c r="F39" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="21">
-        <v>0</v>
-      </c>
-      <c r="H39" s="21">
-        <v>0</v>
-      </c>
-      <c r="I39" s="21">
-        <v>0</v>
-      </c>
-      <c r="J39" s="21">
-        <v>0</v>
-      </c>
-      <c r="K39" s="21">
-        <v>0</v>
+      <c r="G39" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="L39" s="21">
         <v>0</v>
@@ -6655,10 +6668,10 @@
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="17">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D54" s="17">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E54" s="17">
         <v>0</v>
@@ -6926,11 +6939,11 @@
       </c>
       <c r="C61" s="19">
         <f>SUM(C50:C59)</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D61" s="19">
         <f>SUM(D50:D59)</f>
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E61" s="19">
         <f>SUM(E50:E59)</f>
@@ -7767,10 +7780,10 @@
       </c>
       <c r="B84" s="37"/>
       <c r="C84" s="36">
+        <v>3</v>
+      </c>
+      <c r="D84" s="36">
         <v>4</v>
-      </c>
-      <c r="D84" s="36">
-        <v>0</v>
       </c>
       <c r="E84" s="36">
         <v>0</v>
@@ -8038,11 +8051,11 @@
       </c>
       <c r="C91" s="38">
         <f>SUM(C80:C89)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" s="38">
         <f>SUM(D80:D89)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E91" s="38">
         <f>SUM(E80:E89)</f>
